--- a/males_on_females_and_males_means.xlsx
+++ b/males_on_females_and_males_means.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,31 +8,86 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlomin\PycharmProjects\lda_test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B11A16-79B5-4199-997D-5FACAED79C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E56511-E967-4EE1-9556-D4FD05EAFAC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="19120" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="males_on_females_and_males_mean" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Females</t>
   </si>
   <si>
     <t>Males</t>
   </si>
+  <si>
+    <t>Determined</t>
+  </si>
+  <si>
+    <t>Collaborator</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Optimistic</t>
+  </si>
+  <si>
+    <t>Conqueror</t>
+  </si>
+  <si>
+    <t>Peacful zionist</t>
+  </si>
+  <si>
+    <t>Nurturing</t>
+  </si>
+  <si>
+    <t>Compassionate</t>
+  </si>
+  <si>
+    <t>Educator</t>
+  </si>
+  <si>
+    <t>Army Commander</t>
+  </si>
+  <si>
+    <t>Visionary</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Achiever</t>
+  </si>
+  <si>
+    <t>Fiction Character</t>
+  </si>
+  <si>
+    <t>Problem Sover</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +218,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -509,8 +571,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -624,7 +687,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>males_on_females_and_males_mean!$A$1</c:f>
+              <c:f>males_on_females_and_males_mean!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -659,7 +722,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>males_on_females_and_males_mean!$B$1:$P$1</c:f>
+              <c:f>males_on_females_and_males_mean!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -723,7 +786,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>males_on_females_and_males_mean!$A$2</c:f>
+              <c:f>males_on_females_and_males_mean!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -758,7 +821,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>males_on_females_and_males_mean!$B$2:$P$2</c:f>
+              <c:f>males_on_females_and_males_mean!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1019,7 +1082,629 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>By trait avarage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>males_on_females_and_males_mean!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Females</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>males_on_females_and_males_mean!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Determined</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Collaborator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Conqueror</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peacful zionist</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nurturing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Compassionate</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Educator</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Army Commander</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Visionary</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Achiever</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fiction Character</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Problem Sover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>males_on_females_and_males_mean!$B$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.5496901827233403E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3891600336444795E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0678891948924506E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.154165671524013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7637570582878803E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.54420788751114E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.121032061080818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4985891699662203E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9512288794826793E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7358646468427903E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8346019552881099E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0100890770382401E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9452071900721404E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4204107242050099E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7695307395621504E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9F3-46ED-9A35-5BDD776B721A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>males_on_females_and_males_mean!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Males</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>males_on_females_and_males_mean!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Determined</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Collaborator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Conqueror</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peacful zionist</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nurturing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Compassionate</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Educator</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Army Commander</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Visionary</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Achiever</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fiction Character</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Problem Sover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>males_on_females_and_males_mean!$B$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.4235524079395196E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3312629990823502E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.32697306461866E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6209847445244802E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5534850227021499E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2791321273063401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.26670554392076E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.98710251940128E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.66938152053525E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9952601185055793E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0583456290064998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0441436198940802E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7631114792889899E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1959052381450502E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.4846539651285699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D9F3-46ED-9A35-5BDD776B721A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="774573408"/>
+        <c:axId val="774574064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="774573408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774574064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="774574064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774573408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1562,19 +2247,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1595,6 +2783,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF651073-4309-4A51-B421-510B87C8F5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1899,113 +3123,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>6.5496901827233403E-2</v>
-      </c>
-      <c r="C1">
-        <v>6.3891600336444795E-2</v>
-      </c>
-      <c r="D1">
-        <v>9.0678891948924506E-2</v>
-      </c>
-      <c r="E1">
-        <v>0.154165671524013</v>
-      </c>
-      <c r="F1">
-        <v>3.7637570582878803E-2</v>
-      </c>
-      <c r="G1">
-        <v>2.54420788751114E-2</v>
-      </c>
-      <c r="H1">
-        <v>0.121032061080818</v>
-      </c>
-      <c r="I1">
-        <v>4.4985891699662203E-2</v>
-      </c>
-      <c r="J1">
-        <v>6.9512288794826793E-2</v>
-      </c>
-      <c r="K1">
-        <v>3.7358646468427903E-2</v>
-      </c>
-      <c r="L1">
-        <v>2.8346019552881099E-2</v>
-      </c>
-      <c r="M1">
-        <v>6.0100890770382401E-2</v>
-      </c>
-      <c r="N1">
-        <v>6.9452071900721404E-2</v>
-      </c>
-      <c r="O1">
-        <v>6.4204107242050099E-2</v>
-      </c>
-      <c r="P1">
-        <v>6.7695307395621504E-2</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.5496901827233403E-2</v>
+      </c>
+      <c r="C2">
+        <v>6.3891600336444795E-2</v>
+      </c>
+      <c r="D2">
+        <v>9.0678891948924506E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.154165671524013</v>
+      </c>
+      <c r="F2">
+        <v>3.7637570582878803E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.54420788751114E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.121032061080818</v>
+      </c>
+      <c r="I2">
+        <v>4.4985891699662203E-2</v>
+      </c>
+      <c r="J2">
+        <v>6.9512288794826793E-2</v>
+      </c>
+      <c r="K2">
+        <v>3.7358646468427903E-2</v>
+      </c>
+      <c r="L2">
+        <v>2.8346019552881099E-2</v>
+      </c>
+      <c r="M2">
+        <v>6.0100890770382401E-2</v>
+      </c>
+      <c r="N2">
+        <v>6.9452071900721404E-2</v>
+      </c>
+      <c r="O2">
+        <v>6.4204107242050099E-2</v>
+      </c>
+      <c r="P2">
+        <v>6.7695307395621504E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>7.4235524079395196E-2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>6.3312629990823502E-2</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>6.32697306461866E-2</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>6.6209847445244802E-2</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>7.5534850227021499E-2</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>9.2791321273063401E-2</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>6.26670554392076E-2</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>5.98710251940128E-2</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>5.66938152053525E-2</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>6.9952601185055793E-2</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>8.0583456290064998E-2</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>6.0441436198940802E-2</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>6.7631114792889899E-2</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>5.1959052381450502E-2</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>5.4846539651285699E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>149.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>49.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>137.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>85.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>44.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>85.19</v>
       </c>
     </row>
   </sheetData>
